--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Robo4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Slit2-Robo4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H2">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J2">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N2">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O2">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P2">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q2">
-        <v>0.4613128042679999</v>
+        <v>1.314237088566667</v>
       </c>
       <c r="R2">
-        <v>4.151815238412</v>
+        <v>11.8281337971</v>
       </c>
       <c r="S2">
-        <v>0.006490299304280371</v>
+        <v>0.0130581524327679</v>
       </c>
       <c r="T2">
-        <v>0.00649029930428037</v>
+        <v>0.01305815243276789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H3">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J3">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N3">
         <v>0.177614</v>
       </c>
       <c r="O3">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P3">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q3">
-        <v>0.0007379467002222223</v>
+        <v>0.002384171926666667</v>
       </c>
       <c r="R3">
-        <v>0.006641520302</v>
+        <v>0.02145754734</v>
       </c>
       <c r="S3">
-        <v>1.038231523325727E-05</v>
+        <v>2.368893764693051E-05</v>
       </c>
       <c r="T3">
-        <v>1.038231523325727E-05</v>
+        <v>2.36889376469305E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01246433333333333</v>
+        <v>0.04027</v>
       </c>
       <c r="H4">
-        <v>0.037393</v>
+        <v>0.12081</v>
       </c>
       <c r="I4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="J4">
-        <v>0.0065371131913745</v>
+        <v>0.01318991723029425</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N4">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O4">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P4">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q4">
-        <v>0.002589456940444445</v>
+        <v>0.01087728943</v>
       </c>
       <c r="R4">
-        <v>0.023305112464</v>
+        <v>0.09789560487</v>
       </c>
       <c r="S4">
-        <v>3.643157186087316E-05</v>
+        <v>0.0001080758598794254</v>
       </c>
       <c r="T4">
-        <v>3.643157186087315E-05</v>
+        <v>0.0001080758598794254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H5">
         <v>2.983119</v>
       </c>
       <c r="I5">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J5">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N5">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O5">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P5">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q5">
-        <v>36.80236919624399</v>
+        <v>32.45199593914334</v>
       </c>
       <c r="R5">
-        <v>331.221322766196</v>
+        <v>292.0679634522901</v>
       </c>
       <c r="S5">
-        <v>0.5177796691970571</v>
+        <v>0.3224403826428785</v>
       </c>
       <c r="T5">
-        <v>0.517779669197057</v>
+        <v>0.3224403826428783</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H6">
         <v>2.983119</v>
       </c>
       <c r="I6">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J6">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N6">
         <v>0.177614</v>
       </c>
       <c r="O6">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P6">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q6">
-        <v>0.05887152200733334</v>
+        <v>0.05887152200733333</v>
       </c>
       <c r="R6">
         <v>0.5298436980660001</v>
       </c>
       <c r="S6">
-        <v>0.000828274859902099</v>
+        <v>0.0005849426370695614</v>
       </c>
       <c r="T6">
-        <v>0.0008282748599020989</v>
+        <v>0.0005849426370695611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.994373</v>
+        <v>0.9943730000000001</v>
       </c>
       <c r="H7">
         <v>2.983119</v>
       </c>
       <c r="I7">
-        <v>0.5215143627507798</v>
+        <v>0.3256940046198011</v>
       </c>
       <c r="J7">
-        <v>0.5215143627507798</v>
+        <v>0.325694004619801</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N7">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O7">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P7">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q7">
-        <v>0.2065803278346667</v>
+        <v>0.268589096657</v>
       </c>
       <c r="R7">
-        <v>1.859222950512</v>
+        <v>2.417301869913</v>
       </c>
       <c r="S7">
-        <v>0.002906418693820664</v>
+        <v>0.002668679339853089</v>
       </c>
       <c r="T7">
-        <v>0.002906418693820663</v>
+        <v>0.002668679339853088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H8">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J8">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>37.010628</v>
+        <v>32.63563666666667</v>
       </c>
       <c r="N8">
-        <v>111.031884</v>
+        <v>97.90691000000001</v>
       </c>
       <c r="O8">
-        <v>0.9928387522559806</v>
+        <v>0.9900101876891448</v>
       </c>
       <c r="P8">
-        <v>0.9928387522559805</v>
+        <v>0.9900101876891446</v>
       </c>
       <c r="Q8">
-        <v>33.30459343897199</v>
+        <v>65.87329204437778</v>
       </c>
       <c r="R8">
-        <v>299.7413409507479</v>
+        <v>592.8596283994</v>
       </c>
       <c r="S8">
-        <v>0.4685687837546432</v>
+        <v>0.6545116526134985</v>
       </c>
       <c r="T8">
-        <v>0.4685687837546432</v>
+        <v>0.6545116526134983</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H9">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J9">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -986,28 +986,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05920466666666668</v>
+        <v>0.05920466666666666</v>
       </c>
       <c r="N9">
         <v>0.177614</v>
       </c>
       <c r="O9">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="P9">
-        <v>0.001588211023629877</v>
+        <v>0.001795988347259859</v>
       </c>
       <c r="Q9">
-        <v>0.05327624683977778</v>
+        <v>0.1195014620844444</v>
       </c>
       <c r="R9">
-        <v>0.479486221558</v>
+        <v>1.07551315876</v>
       </c>
       <c r="S9">
-        <v>0.0007495538484945209</v>
+        <v>0.001187356772543367</v>
       </c>
       <c r="T9">
-        <v>0.0007495538484945209</v>
+        <v>0.001187356772543367</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8998656666666666</v>
+        <v>2.018446666666666</v>
       </c>
       <c r="H10">
-        <v>2.699597</v>
+        <v>6.055339999999999</v>
       </c>
       <c r="I10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="J10">
-        <v>0.4719485240578458</v>
+        <v>0.6611160781499047</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2077493333333333</v>
+        <v>0.270109</v>
       </c>
       <c r="N10">
-        <v>0.623248</v>
+        <v>0.810327</v>
       </c>
       <c r="O10">
-        <v>0.005573036720389573</v>
+        <v>0.008193823963595435</v>
       </c>
       <c r="P10">
-        <v>0.005573036720389572</v>
+        <v>0.008193823963595434</v>
       </c>
       <c r="Q10">
-        <v>0.1869464923395555</v>
+        <v>0.5452006106866666</v>
       </c>
       <c r="R10">
-        <v>1.682518431056</v>
+        <v>4.90680549618</v>
       </c>
       <c r="S10">
-        <v>0.002630186454708036</v>
+        <v>0.005417068763862921</v>
       </c>
       <c r="T10">
-        <v>0.002630186454708036</v>
+        <v>0.005417068763862921</v>
       </c>
     </row>
   </sheetData>
